--- a/Konakart/src/test/resources/testdata/negativesearchdata.xlsx
+++ b/Konakart/src/test/resources/testdata/negativesearchdata.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7425"/>
+    <workbookView windowWidth="19395" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:B9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>catagories</t>
   </si>
@@ -22,9 +23,15 @@
     <t>select</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>All</t>
   </si>
   <si>
+    <t>There are no available products.</t>
+  </si>
+  <si>
     <t>Computer Peripherals</t>
   </si>
   <si>
@@ -53,6 +60,11 @@
   </si>
   <si>
     <t>abxg</t>
+  </si>
+  <si>
+    <t>No products were found for your search of abxg . Click on any of the following suggestions to retry:
+abug
+able</t>
   </si>
   <si>
     <t>Gifts</t>
@@ -63,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,11 +95,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,24 +110,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,6 +133,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -139,14 +187,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,73 +234,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,19 +248,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,13 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,139 +404,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +439,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,50 +481,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +507,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -527,12 +524,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,148 +559,145 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1006,88 +1021,116 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="19.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="33.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:2">
+    <row r="1" ht="25" customHeight="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" ht="41" customHeight="1" spans="1:2">
+    <row r="2" ht="41" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>123</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" ht="41" customHeight="1" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
+    <row r="3" ht="41" customHeight="1" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="41" customHeight="1" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
+    <row r="4" ht="41" customHeight="1" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" ht="38" customHeight="1" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
+    <row r="5" ht="38" customHeight="1" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" ht="38" customHeight="1" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
+    <row r="6" ht="38" customHeight="1" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
         <v>9987</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
+    <row r="7" ht="30" customHeight="1" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B7">
         <v>123</v>
       </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" ht="29" customHeight="1" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
+    <row r="8" ht="76" customHeight="1" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="9" ht="35" customHeight="1" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
+    <row r="9" ht="35" customHeight="1" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B9">
         <v>123</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
